--- a/RPA-TWs/Project/B4-RPA_Project/RPA-project.xlsx
+++ b/RPA-TWs/Project/B4-RPA_Project/RPA-project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Venki\Ed\UG\3rd Year\SEM-6\RPA-TWs\Project\B4-RPA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E79EED0-D3DF-4027-A41A-D4333BDC0285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA57389-C9C5-477B-8AA4-BE3F06F80F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A8BF921-137C-4F7F-A9B5-1632DBBEBAFD}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{1A8BF921-137C-4F7F-A9B5-1632DBBEBAFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Location</t>
   </si>
@@ -51,6 +51,129 @@
   </si>
   <si>
     <t>New cases (last 60d)</t>
+  </si>
+  <si>
+    <t>Worldwide</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
   </si>
 </sst>
 </file>
@@ -450,278 +573,731 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>567898418</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1101247</v>
+      </c>
+      <c r="E2" s="1">
+        <v>73034</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6380676</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>90035617</v>
+      </c>
+      <c r="C3" s="1">
+        <v>153040</v>
+      </c>
+      <c r="E3" s="1">
+        <v>273202</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1022688</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43847065</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22337</v>
+      </c>
+      <c r="E4" s="1">
+        <v>32228</v>
+      </c>
+      <c r="F4" s="1">
+        <v>525930</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>33505727</v>
+      </c>
+      <c r="C5" s="1">
+        <v>51433</v>
+      </c>
+      <c r="E5" s="1">
+        <v>158542</v>
+      </c>
+      <c r="F5" s="1">
+        <v>676486</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>32439609</v>
+      </c>
+      <c r="C6" s="1">
+        <v>80869</v>
+      </c>
+      <c r="E6" s="1">
+        <v>483625</v>
+      </c>
+      <c r="F6" s="1">
+        <v>147877</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30239122</v>
+      </c>
+      <c r="C7" s="1">
+        <v>107819</v>
+      </c>
+      <c r="E7" s="1">
+        <v>363673</v>
+      </c>
+      <c r="F7" s="1">
+        <v>143061</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>23212565</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>349400</v>
+      </c>
+      <c r="F8" s="1">
+        <v>182727</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20467349</v>
+      </c>
+      <c r="C9" s="1">
+        <v>81535</v>
+      </c>
+      <c r="E9" s="1">
+        <v>339744</v>
+      </c>
+      <c r="F9" s="1">
+        <v>170527</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>19077659</v>
+      </c>
+      <c r="C10" s="1">
+        <v>68579</v>
+      </c>
+      <c r="E10" s="1">
+        <v>368433</v>
+      </c>
+      <c r="F10" s="1">
+        <v>24825</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>18241184</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6314</v>
+      </c>
+      <c r="E11" s="1">
+        <v>124305</v>
+      </c>
+      <c r="F11" s="1">
+        <v>374298</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15524071</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>186688</v>
+      </c>
+      <c r="F12" s="1">
+        <v>99184</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13132159</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>278812</v>
+      </c>
+      <c r="F13" s="1">
+        <v>109642</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10800103</v>
+      </c>
+      <c r="C14" s="1">
+        <v>186156</v>
+      </c>
+      <c r="E14" s="1">
+        <v>85749</v>
+      </c>
+      <c r="F14" s="1">
+        <v>31746</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10764986</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1292</v>
+      </c>
+      <c r="E15" s="1">
+        <v>111892</v>
+      </c>
+      <c r="F15" s="1">
+        <v>43091</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9465827</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>210639</v>
+      </c>
+      <c r="F16" s="1">
+        <v>129202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9018965</v>
+      </c>
+      <c r="C17" s="1">
+        <v>51827</v>
+      </c>
+      <c r="E17" s="1">
+        <v>351406</v>
+      </c>
+      <c r="F17" s="1">
+        <v>11028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8301167</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4494</v>
+      </c>
+      <c r="E18" s="1">
+        <v>475683</v>
+      </c>
+      <c r="F18" s="1">
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7304550</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7915</v>
+      </c>
+      <c r="E19" s="1">
+        <v>87657</v>
+      </c>
+      <c r="F19" s="1">
+        <v>141593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6556679</v>
+      </c>
+      <c r="C20" s="1">
+        <v>33660</v>
+      </c>
+      <c r="E20" s="1">
+        <v>51800</v>
+      </c>
+      <c r="F20" s="1">
+        <v>326879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6247634</v>
+      </c>
+      <c r="C21" s="1">
+        <v>24137</v>
+      </c>
+      <c r="E21" s="1">
+        <v>126481</v>
+      </c>
+      <c r="F21" s="1">
+        <v>140603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6154494</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5410</v>
+      </c>
+      <c r="E22" s="1">
+        <v>23058</v>
+      </c>
+      <c r="F22" s="1">
+        <v>156880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6041891</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2998</v>
+      </c>
+      <c r="E23" s="1">
+        <v>157427</v>
+      </c>
+      <c r="F23" s="1">
+        <v>116492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5312553</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5412</v>
+      </c>
+      <c r="E24" s="1">
+        <v>516955</v>
+      </c>
+      <c r="F24" s="1">
+        <v>24513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5290117</v>
+      </c>
+      <c r="C25">
+        <v>77</v>
+      </c>
+      <c r="E25" s="1">
+        <v>126316</v>
+      </c>
+      <c r="F25" s="1">
+        <v>116431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4691948</v>
+      </c>
+      <c r="C26" s="1">
+        <v>16416</v>
+      </c>
+      <c r="E26" s="1">
+        <v>527031</v>
+      </c>
+      <c r="F26" s="1">
+        <v>20217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4640235</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4587</v>
+      </c>
+      <c r="E27" s="1">
+        <v>141740</v>
+      </c>
+      <c r="F27" s="1">
+        <v>35888</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4570885</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5031</v>
+      </c>
+      <c r="E28" s="1">
+        <v>68747</v>
+      </c>
+      <c r="F28" s="1">
+        <v>31098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4537898</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6217</v>
+      </c>
+      <c r="E29" s="1">
+        <v>494324</v>
+      </c>
+      <c r="F29" s="1">
+        <v>11209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4381331</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>380177</v>
+      </c>
+      <c r="F30" s="1">
+        <v>32118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4362227</v>
+      </c>
+      <c r="C31" s="1">
+        <v>25151</v>
+      </c>
+      <c r="E31" s="1">
+        <v>184807</v>
+      </c>
+      <c r="F31" s="1">
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4210771</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>392627</v>
+      </c>
+      <c r="F32" s="1">
+        <v>30707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4161478</v>
+      </c>
+      <c r="C33" s="1">
+        <v>9003</v>
+      </c>
+      <c r="E33" s="1">
+        <v>217796</v>
+      </c>
+      <c r="F33" s="1">
+        <v>59216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4051382</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10424</v>
+      </c>
+      <c r="E34" s="1">
+        <v>106674</v>
+      </c>
+      <c r="F34" s="1">
+        <v>43661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4001816</v>
+      </c>
+      <c r="C35" s="1">
+        <v>372</v>
+      </c>
+      <c r="E35" s="1">
+        <v>68087</v>
+      </c>
+      <c r="F35" s="1">
+        <v>101942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3964280</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2710</v>
+      </c>
+      <c r="E36" s="1">
+        <v>370703</v>
+      </c>
+      <c r="F36" s="1">
+        <v>40380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3911515</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>455540</v>
+      </c>
+      <c r="F37" s="1">
+        <v>13874</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3801893</v>
+      </c>
+      <c r="C38" s="1">
+        <v>14006</v>
+      </c>
+      <c r="E38" s="1">
+        <v>118323</v>
+      </c>
+      <c r="F38" s="1">
+        <v>213918</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3741987</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2827</v>
+      </c>
+      <c r="E39" s="1">
+        <v>34493</v>
+      </c>
+      <c r="F39" s="1">
+        <v>60641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3216533</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2116</v>
+      </c>
+      <c r="E40" s="1">
+        <v>552407</v>
+      </c>
+      <c r="F40" s="1">
+        <v>6581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2988788</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7129</v>
+      </c>
+      <c r="E41" s="1">
+        <v>154020</v>
+      </c>
+      <c r="F41" s="1">
+        <v>65839</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2569210</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1434</v>
+      </c>
+      <c r="E42" s="1">
+        <v>470865</v>
+      </c>
+      <c r="F42" s="1">
+        <v>20188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
